--- a/Learning_Models.xlsx
+++ b/Learning_Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\Desktop\Analysis Project\Deep Learning\Neural_Network_Charity_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4941668D-4240-4BD7-87EC-216071D8ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074A688-8D65-45B4-8526-6532C92F60AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="636" windowWidth="23016" windowHeight="12324" xr2:uid="{DD59274D-99CC-4929-9880-869B70C34128}"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="23016" windowHeight="12324" xr2:uid="{DD59274D-99CC-4929-9880-869B70C34128}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +74,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,9 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -416,26 +433,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A671E-501F-4735-B811-DAF201D57973}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
